--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>Program</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Test Parallelization Manual Tests</t>
+  </si>
+  <si>
+    <t>Test Selection Manual Tests</t>
+  </si>
+  <si>
+    <t>Manual Order Statement</t>
+  </si>
+  <si>
+    <t>Manual Order Function</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,9 +422,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -425,13 +431,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,7 +445,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -487,8 +486,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,6 +515,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,13 +841,15 @@
   <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -826,775 +867,1475 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="43"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="37"/>
+    </row>
+    <row r="2" spans="1:36" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="40" t="s">
+      <c r="AH2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="40" t="s">
+      <c r="AI2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="40" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17">
+        <v>93</v>
+      </c>
+      <c r="H3" s="17">
+        <v>86</v>
+      </c>
+      <c r="I3" s="17">
+        <v>88</v>
+      </c>
+      <c r="J3" s="17">
+        <v>81</v>
+      </c>
+      <c r="K3" s="17">
+        <v>91</v>
+      </c>
+      <c r="L3" s="17">
+        <v>88</v>
+      </c>
+      <c r="M3" s="17">
+        <v>88</v>
+      </c>
+      <c r="N3" s="17">
+        <v>86</v>
+      </c>
+      <c r="O3" s="17">
+        <v>86</v>
+      </c>
+      <c r="P3" s="17">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>72</v>
+      </c>
+      <c r="R3" s="17">
+        <v>82</v>
+      </c>
+      <c r="S3" s="17">
+        <v>83</v>
+      </c>
+      <c r="T3" s="17">
+        <v>81</v>
+      </c>
+      <c r="U3" s="17">
+        <v>77</v>
+      </c>
+      <c r="V3" s="17">
+        <v>85</v>
+      </c>
+      <c r="W3" s="17">
+        <v>93</v>
+      </c>
+      <c r="X3" s="17">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>97</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>85</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>90</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>86</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="17">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="17">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>4</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>5</v>
+      </c>
+      <c r="R4" s="12">
+        <v>4</v>
+      </c>
+      <c r="S4" s="12">
+        <v>4</v>
+      </c>
+      <c r="T4" s="12">
+        <v>3</v>
+      </c>
+      <c r="U4" s="12">
+        <v>3</v>
+      </c>
+      <c r="V4" s="12">
+        <v>4</v>
+      </c>
+      <c r="W4" s="12">
+        <v>4</v>
+      </c>
+      <c r="X4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
+      <c r="B5" s="8">
+        <v>22</v>
+      </c>
+      <c r="C5" s="47">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11">
+        <v>132</v>
+      </c>
+      <c r="E5" s="11">
+        <v>201</v>
+      </c>
+      <c r="F5" s="11">
+        <v>236</v>
+      </c>
+      <c r="G5" s="11">
+        <v>324</v>
+      </c>
+      <c r="H5" s="11">
+        <v>267</v>
+      </c>
+      <c r="I5" s="11">
+        <v>302</v>
+      </c>
+      <c r="J5" s="11">
+        <v>300</v>
+      </c>
+      <c r="K5" s="11">
+        <v>304</v>
+      </c>
+      <c r="L5" s="11">
+        <v>354</v>
+      </c>
+      <c r="M5" s="11">
+        <v>268</v>
+      </c>
+      <c r="N5" s="11">
+        <v>302</v>
+      </c>
+      <c r="O5" s="11">
+        <v>305</v>
+      </c>
+      <c r="P5" s="11">
+        <v>307</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>279</v>
+      </c>
+      <c r="R5" s="12">
+        <v>299</v>
+      </c>
+      <c r="S5" s="12">
+        <v>288</v>
+      </c>
+      <c r="T5" s="12">
+        <v>307</v>
+      </c>
+      <c r="U5" s="12">
+        <v>301</v>
+      </c>
+      <c r="V5" s="12">
+        <v>280</v>
+      </c>
+      <c r="W5" s="12">
+        <v>287</v>
+      </c>
+      <c r="X5" s="12">
+        <v>195</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>292</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>303</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>283</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>291</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>289</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>296</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>301</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>289</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>293</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>289</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>294</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>303</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>2</v>
+      </c>
+      <c r="T6" s="8">
+        <v>2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>2</v>
+      </c>
+      <c r="V6" s="8">
+        <v>3</v>
+      </c>
+      <c r="W6" s="8">
+        <v>3</v>
+      </c>
+      <c r="X6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
+      <c r="B7" s="8">
+        <v>66</v>
+      </c>
+      <c r="C7" s="47">
+        <v>78</v>
+      </c>
+      <c r="D7" s="11">
+        <v>104</v>
+      </c>
+      <c r="E7" s="11">
+        <v>104</v>
+      </c>
+      <c r="F7" s="11">
+        <v>111</v>
+      </c>
+      <c r="G7" s="11">
+        <v>91</v>
+      </c>
+      <c r="H7" s="11">
+        <v>103</v>
+      </c>
+      <c r="I7" s="11">
+        <v>123</v>
+      </c>
+      <c r="J7" s="11">
+        <v>111</v>
+      </c>
+      <c r="K7" s="11">
+        <v>116</v>
+      </c>
+      <c r="L7" s="11">
+        <v>73</v>
+      </c>
+      <c r="M7" s="11">
+        <v>115</v>
+      </c>
+      <c r="N7" s="11">
+        <v>109</v>
+      </c>
+      <c r="O7" s="11">
+        <v>113</v>
+      </c>
+      <c r="P7" s="11">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>93</v>
+      </c>
+      <c r="R7" s="12">
+        <v>111</v>
+      </c>
+      <c r="S7" s="12">
+        <v>116</v>
+      </c>
+      <c r="T7" s="12">
+        <v>116</v>
+      </c>
+      <c r="U7" s="12">
+        <v>118</v>
+      </c>
+      <c r="V7" s="12">
+        <v>90</v>
+      </c>
+      <c r="W7" s="12">
+        <v>111</v>
+      </c>
+      <c r="X7" s="12">
+        <v>117</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>122</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>96</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>110</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>117</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>121</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>85</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>90</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>119</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>123</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="43"/>
-    </row>
-    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="37"/>
+    </row>
+    <row r="10" spans="1:36" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="40" t="s">
+      <c r="U10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="40" t="s">
+      <c r="V10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="40" t="s">
+      <c r="W10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="X10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="40" t="s">
+      <c r="Z10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="40" t="s">
+      <c r="AA10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AB10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AC10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AD10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AE10" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="AF10" s="40" t="s">
+      <c r="AF10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AG10" s="40" t="s">
+      <c r="AG10" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AH10" s="40" t="s">
+      <c r="AH10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AI10" s="40" t="s">
+      <c r="AI10" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="40" t="s">
+      <c r="AJ10" s="56" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="50">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17</v>
+      </c>
+      <c r="H11" s="13">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13">
+        <v>18</v>
+      </c>
+      <c r="K11" s="13">
+        <v>18</v>
+      </c>
+      <c r="L11" s="13">
+        <v>9</v>
+      </c>
+      <c r="M11" s="13">
+        <v>16</v>
+      </c>
+      <c r="N11" s="13">
+        <v>15</v>
+      </c>
+      <c r="O11" s="13">
+        <v>15</v>
+      </c>
+      <c r="P11" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>16</v>
+      </c>
+      <c r="R11" s="17">
+        <v>18</v>
+      </c>
+      <c r="S11" s="17">
+        <v>17</v>
+      </c>
+      <c r="T11" s="17">
+        <v>16</v>
+      </c>
+      <c r="U11" s="17">
+        <v>17</v>
+      </c>
+      <c r="V11" s="17">
+        <v>16</v>
+      </c>
+      <c r="W11" s="17">
+        <v>17</v>
+      </c>
+      <c r="X11" s="17">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>15</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>15</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>18</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="47">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>3</v>
+      </c>
+      <c r="T12" s="12">
+        <v>3</v>
+      </c>
+      <c r="U12" s="12">
+        <v>4</v>
+      </c>
+      <c r="V12" s="12">
+        <v>3</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <v>2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <v>2</v>
+      </c>
+      <c r="W13" s="12">
+        <v>2</v>
+      </c>
+      <c r="X13" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>4</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4</v>
+      </c>
+      <c r="O15" s="8">
+        <v>4</v>
+      </c>
+      <c r="P15" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <v>4</v>
+      </c>
+      <c r="S15" s="8">
+        <v>3</v>
+      </c>
+      <c r="T15" s="8">
+        <v>4</v>
+      </c>
+      <c r="U15" s="8">
+        <v>4</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1612,7 +2353,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,240 +2367,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>79</v>
+      </c>
+      <c r="C3" s="10">
+        <v>74</v>
+      </c>
+      <c r="D3" s="25">
+        <v>86</v>
+      </c>
+      <c r="E3" s="25">
+        <v>89</v>
+      </c>
+      <c r="F3" s="25">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="7">
+        <v>258</v>
+      </c>
+      <c r="C5" s="10">
+        <v>289</v>
+      </c>
+      <c r="D5" s="11">
+        <v>269</v>
+      </c>
+      <c r="E5" s="11">
+        <v>291</v>
+      </c>
+      <c r="F5" s="11">
+        <v>286</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="7">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10">
+        <v>77</v>
+      </c>
+      <c r="D7" s="11">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25">
+        <v>16</v>
+      </c>
+      <c r="E11" s="25">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1902,7 +2743,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,465 +2758,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="33">
+        <v>0</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>3</v>
+      </c>
+      <c r="G3" s="33">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33">
+        <v>3</v>
+      </c>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="12">
+        <v>64</v>
+      </c>
+      <c r="C4" s="46">
+        <v>66</v>
+      </c>
+      <c r="D4" s="12">
+        <v>67</v>
+      </c>
+      <c r="E4" s="12">
+        <v>67</v>
+      </c>
+      <c r="F4" s="12">
+        <v>261</v>
+      </c>
+      <c r="G4" s="12">
+        <v>277</v>
+      </c>
+      <c r="H4" s="12">
+        <v>276</v>
+      </c>
+      <c r="I4" s="12">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6" s="47">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <v>29</v>
+      </c>
+      <c r="E6" s="12">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12">
+        <v>24</v>
+      </c>
+      <c r="G6" s="12">
+        <v>26</v>
+      </c>
+      <c r="H6" s="12">
+        <v>28</v>
+      </c>
+      <c r="I6" s="12">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="47">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="17"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="17"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="17"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="17"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="18"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="18"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="18"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="18"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="18"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="18"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="18"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="18"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="18"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="18"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="18"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="18"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
+      <c r="A57" s="18"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="18"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="18"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="18"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="18"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="18"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="18"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="18"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="18"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="18"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="18"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="18"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="18"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="18"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="18"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="18"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="18"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2383,5 +3320,6 @@
     <mergeCell ref="B9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -486,6 +486,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,48 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,7 +848,7 @@
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -867,151 +867,151 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-    </row>
-    <row r="2" spans="1:36" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="54" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
+    </row>
+    <row r="2" spans="1:36" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="56" t="s">
+      <c r="AG2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="56" t="s">
+      <c r="AH2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AI2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="38">
         <v>0</v>
       </c>
       <c r="D3" s="17">
@@ -1132,7 +1132,7 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="37">
         <v>3</v>
       </c>
       <c r="D4" s="11">
@@ -1242,7 +1242,7 @@
       <c r="B5" s="8">
         <v>22</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <v>48</v>
       </c>
       <c r="D5" s="11">
@@ -1462,7 +1462,7 @@
       <c r="B7" s="8">
         <v>66</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="37">
         <v>78</v>
       </c>
       <c r="D7" s="11">
@@ -1568,7 +1568,7 @@
     <row r="8" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1585,151 +1585,151 @@
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="37"/>
-    </row>
-    <row r="10" spans="1:36" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="54" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="51"/>
+    </row>
+    <row r="10" spans="1:36" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="56" t="s">
+      <c r="S10" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="56" t="s">
+      <c r="T10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="56" t="s">
+      <c r="U10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="56" t="s">
+      <c r="V10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="W10" s="56" t="s">
+      <c r="W10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="56" t="s">
+      <c r="X10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="Y10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="56" t="s">
+      <c r="Z10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AA10" s="56" t="s">
+      <c r="AA10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" s="56" t="s">
+      <c r="AB10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AC10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="56" t="s">
+      <c r="AD10" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="56" t="s">
+      <c r="AE10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AF10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AG10" s="56" t="s">
+      <c r="AG10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AH10" s="56" t="s">
+      <c r="AH10" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AI10" s="56" t="s">
+      <c r="AI10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="56" t="s">
+      <c r="AJ10" s="46" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="40">
         <v>8</v>
       </c>
       <c r="D11" s="13">
@@ -1850,7 +1850,7 @@
       <c r="B12" s="8">
         <v>0</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="37">
         <v>0</v>
       </c>
       <c r="D12" s="11">
@@ -1960,7 +1960,7 @@
       <c r="B13" s="8">
         <v>0</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="37">
         <v>0</v>
       </c>
       <c r="D13" s="11">
@@ -2286,7 +2286,7 @@
     <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="51"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -2304,7 +2304,7 @@
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="51"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2322,7 +2322,7 @@
     <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2368,13 +2368,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -2506,13 +2506,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
@@ -2694,9 +2694,9 @@
       <c r="A23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,16 +2759,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -2806,7 +2806,7 @@
       <c r="B3" s="33">
         <v>0</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="35">
         <v>0</v>
       </c>
       <c r="D3" s="33">
@@ -2835,7 +2835,7 @@
       <c r="B4" s="12">
         <v>64</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="36">
         <v>66</v>
       </c>
       <c r="D4" s="12">
@@ -2864,7 +2864,7 @@
       <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="37">
         <v>0</v>
       </c>
       <c r="D5" s="12">
@@ -2893,7 +2893,7 @@
       <c r="B6" s="5">
         <v>24</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="37">
         <v>30</v>
       </c>
       <c r="D6" s="12">
@@ -2929,16 +2929,16 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
@@ -2973,27 +2973,59 @@
       <c r="A11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3002,7 +3034,7 @@
       <c r="B13" s="5">
         <v>0</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="37">
         <v>0</v>
       </c>
       <c r="D13" s="12">
@@ -3031,7 +3063,7 @@
       <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="37">
         <v>0</v>
       </c>
       <c r="D14" s="12">
